--- a/Conversation_data.xlsx
+++ b/Conversation_data.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -477,6 +477,155 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> karma</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Calm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Please provide more specific deatils!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> just me a mobile device or android device</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Dear Valued Customer,
+Thank you for considering us for your mobile device needs. Based on your query, we have curated a list of four fantastic options from renowned brands that fit your requirements. Please find the details of the recommended devices below:
+**Option 1: OPPO A12 (Black)**
+This sleek device offers 3GB of RAM, 32GB of internal storage, and is available in Black. With an impressive rating of 4.4, this phone is a great value for its price. You can get it for an unbeatable price of ₹9,490, which is ₹1,500 less than its original price of ₹10,990.
+**Option 2: OPPO A12 (Deep Blue)**
+If you're looking for a device with more storage, the OPPO A12 in Deep Blue is an excellent choice. It comes with 4GB of RAM and 64GB of internal storage. With the same impressive rating of 4.4</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>It seems like the user is asking for a mobile device or an Android device. 
+To proceed, I suggest rephrasing the question to clarify the user's intention. Here's an example response:
+"Hi, are you looking to purchase a new mobile device or Android phone? Or do you need help with something related to your existing device?"
+This strategy will help to:
+1. Confirm the user's request
+2. Open up a conversation to understand their specific needs
+3. Provide an opportunity</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> To me some smart phones.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Here's a professional and customer-friendly response:
+"Hello! We've got some great options for you!
+Based on your query, we've shortlisted four smartphones that caught our attention. Take a look at our top recommendations:
+**OPPO A12**
+* Available in two stylish colors: Black and Deep Blue
+* Rated 4.4/5 by our customers
+* Priced at ₹9,490 (Black) and ₹10,490 (Deep Blue), originally priced at ₹10,990 and ₹11,990 respectively
+**SAMSUNG M52 5G**
+* Available in a sleek Sky Blue color
+* Rated 4.2/5 by our customers
+* Priced at ₹20,350, originally priced at ₹22,595
+All of these smartphones are from reputable brands and have received excellent customer reviews. Whether you're looking for a device with a stylish design or superior performance, we've got you covered.
+Which one catches your eye</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Objection Handling Strategy: Clarify User Intent
+Based on the user's input "To me some smart phones", it seems like they are looking to purchase or acquire smartphones. However, the request is vague and lacks specific details.
+I suggest responding with a clarifying question to understand their exact needs, such as:
+"Hi, are you looking to purchase a new smartphone or do you need help with something related to your existing device? Perhaps you could provide more details about your requirements, like budget or</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandin michaing girl motor</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Calm</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Based on the input, it seems like the user is not very clear with their request. The text sentiment is neutral, and the tone sentiment is calm. 
+Here's an objection handling strategy: 
+1. Acknowledge the user's request: Respond with a simple acknowledgment to show that you're actively listening to their request. For example, "Hi, I understand you mentioned something about a commanding girl motor."
+2. Seek clarification: Since the request is unclear, ask for more information to understand their</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/Conversation_data.xlsx
+++ b/Conversation_data.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -477,155 +477,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> karma</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Calm</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Please provide more specific deatils!!</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> just me a mobile device or android device</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Dear Valued Customer,
-Thank you for considering us for your mobile device needs. Based on your query, we have curated a list of four fantastic options from renowned brands that fit your requirements. Please find the details of the recommended devices below:
-**Option 1: OPPO A12 (Black)**
-This sleek device offers 3GB of RAM, 32GB of internal storage, and is available in Black. With an impressive rating of 4.4, this phone is a great value for its price. You can get it for an unbeatable price of ₹9,490, which is ₹1,500 less than its original price of ₹10,990.
-**Option 2: OPPO A12 (Deep Blue)**
-If you're looking for a device with more storage, the OPPO A12 in Deep Blue is an excellent choice. It comes with 4GB of RAM and 64GB of internal storage. With the same impressive rating of 4.4</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>It seems like the user is asking for a mobile device or an Android device. 
-To proceed, I suggest rephrasing the question to clarify the user's intention. Here's an example response:
-"Hi, are you looking to purchase a new mobile device or Android phone? Or do you need help with something related to your existing device?"
-This strategy will help to:
-1. Confirm the user's request
-2. Open up a conversation to understand their specific needs
-3. Provide an opportunity</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> To me some smart phones.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Here's a professional and customer-friendly response:
-"Hello! We've got some great options for you!
-Based on your query, we've shortlisted four smartphones that caught our attention. Take a look at our top recommendations:
-**OPPO A12**
-* Available in two stylish colors: Black and Deep Blue
-* Rated 4.4/5 by our customers
-* Priced at ₹9,490 (Black) and ₹10,490 (Deep Blue), originally priced at ₹10,990 and ₹11,990 respectively
-**SAMSUNG M52 5G**
-* Available in a sleek Sky Blue color
-* Rated 4.2/5 by our customers
-* Priced at ₹20,350, originally priced at ₹22,595
-All of these smartphones are from reputable brands and have received excellent customer reviews. Whether you're looking for a device with a stylish design or superior performance, we've got you covered.
-Which one catches your eye</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Objection Handling Strategy: Clarify User Intent
-Based on the user's input "To me some smart phones", it seems like they are looking to purchase or acquire smartphones. However, the request is vague and lacks specific details.
-I suggest responding with a clarifying question to understand their exact needs, such as:
-"Hi, are you looking to purchase a new smartphone or do you need help with something related to your existing device? Perhaps you could provide more details about your requirements, like budget or</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Commandin michaing girl motor</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Calm</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Not available</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Based on the input, it seems like the user is not very clear with their request. The text sentiment is neutral, and the tone sentiment is calm. 
-Here's an objection handling strategy: 
-1. Acknowledge the user's request: Respond with a simple acknowledgment to show that you're actively listening to their request. For example, "Hi, I understand you mentioned something about a commanding girl motor."
-2. Seek clarification: Since the request is unclear, ask for more information to understand their</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
